--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +290,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -464,7 +466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -474,7 +476,7 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
@@ -488,7 +490,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -514,7 +516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43636</v>
       </c>
@@ -530,7 +532,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43674</v>
       </c>
@@ -558,7 +560,7 @@
         <v>768.48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -579,7 +581,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>43801</v>
       </c>
@@ -606,7 +608,7 @@
         <v>2006.54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -626,7 +628,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -644,7 +646,7 @@
         <v>2775.02</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -662,12 +664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -676,12 +678,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,11 +601,12 @@
         <v>4.49</v>
       </c>
       <c r="F5" s="8">
-        <v>2006.54</v>
+        <f>PRODUCT(D5,E5)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="11">
         <f>SUM(F5,F6)</f>
-        <v>2006.54</v>
+        <v>0</v>
       </c>
       <c r="H5" s="11">
         <v>2006.54</v>
@@ -639,7 +643,7 @@
       </c>
       <c r="G7" s="11">
         <f>SUM(G3:G6)</f>
-        <v>2775.02</v>
+        <v>768.48</v>
       </c>
       <c r="H7" s="11">
         <f>SUM(H3:H6)</f>
@@ -655,6 +659,11 @@
       <c r="F8" s="5"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Т2</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -61,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +76,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -135,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -153,16 +142,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -476,7 +462,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,9 +517,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -551,15 +537,15 @@
       <c r="E3" s="5">
         <v>4.49</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>PRODUCT(D3,E3)</f>
         <v>700.44</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>SUM(F3,F4)</f>
         <v>768.48</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>768.48</v>
       </c>
     </row>
@@ -577,38 +563,38 @@
       <c r="E4" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>PRODUCT(D4,E4)</f>
         <v>68.040000000000006</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>43801</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="5">
         <v>4.49</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f>PRODUCT(D5,E5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>SUM(F5,F6)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>2006.54</v>
       </c>
     </row>
@@ -617,52 +603,75 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11">
-        <f>SUM(G3:G6)</f>
-        <v>768.48</v>
-      </c>
-      <c r="H7" s="11">
-        <f>SUM(H3:H6)</f>
-        <v>2775.02</v>
+      <c r="A7" s="9">
+        <v>44105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1151</v>
+      </c>
+      <c r="D7" s="8">
+        <f>SUM(C7,-C3)</f>
+        <v>995</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="7">
+        <f>PRODUCT(D7,E7)</f>
+        <v>4686.45</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM(F7,F8)</f>
+        <v>5619.75</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>394</v>
+      </c>
+      <c r="D8" s="8">
+        <f>SUM(C8,-C4)</f>
+        <v>366</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F8" s="7">
+        <f>PRODUCT(D8,E8)</f>
+        <v>933.3</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Т2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -124,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -152,6 +149,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,8 +668,71 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>10</v>
+      <c r="A9" s="9">
+        <v>44174</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1376</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SUM(C9,-C7)</f>
+        <v>225</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="7">
+        <f>PRODUCT(D9,E9)</f>
+        <v>1059.75</v>
+      </c>
+      <c r="G9" s="10">
+        <f>SUM(F9,F10)</f>
+        <v>1365.75</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>514</v>
+      </c>
+      <c r="D10" s="8">
+        <f>SUM(C10,-C8)</f>
+        <v>120</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F10" s="7">
+        <f>PRODUCT(D10,E10)</f>
+        <v>306</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="10">
+        <f>SUM(G3:G10)</f>
+        <v>7753.98</v>
+      </c>
+      <c r="H11" s="10">
+        <f>SUM(H3:H10)</f>
+        <v>7275.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="11"/>
+      <c r="H12" s="10">
+        <f>SUM(H11,-G11)</f>
+        <v>-478.95999999999913</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -86,12 +86,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -121,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -150,6 +156,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -575,22 +584,22 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
+      <c r="C5" s="12">
+        <v>291</v>
+      </c>
+      <c r="D5" s="12">
+        <v>135</v>
       </c>
       <c r="E5" s="5">
         <v>4.49</v>
       </c>
       <c r="F5" s="7">
         <f>PRODUCT(D5,E5)</f>
-        <v>0</v>
+        <v>606.15</v>
       </c>
       <c r="G5" s="10">
         <f>SUM(F5,F6)</f>
-        <v>0</v>
+        <v>606.15</v>
       </c>
       <c r="H5" s="10">
         <v>2006.54</v>
@@ -601,10 +610,10 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
         <v>0</v>
       </c>
       <c r="E6" s="5">
@@ -618,31 +627,30 @@
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>44105</v>
+        <v>44098</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8">
-        <v>1151</v>
-      </c>
-      <c r="D7" s="8">
-        <f>SUM(C7,-C3)</f>
-        <v>995</v>
+      <c r="C7" s="12">
+        <v>329</v>
+      </c>
+      <c r="D7" s="12">
+        <v>430</v>
       </c>
       <c r="E7" s="5">
         <v>4.71</v>
       </c>
       <c r="F7" s="7">
-        <f>PRODUCT(D7,E7)</f>
-        <v>4686.45</v>
+        <f t="shared" ref="F7:F12" si="0">PRODUCT(D7,E7)</f>
+        <v>2025.3</v>
       </c>
       <c r="G7" s="10">
         <f>SUM(F7,F8)</f>
-        <v>5619.75</v>
+        <v>2535.2999999999997</v>
       </c>
       <c r="H7" s="10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -650,50 +658,48 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
-        <v>394</v>
-      </c>
-      <c r="D8" s="8">
-        <f>SUM(C8,-C4)</f>
-        <v>366</v>
+      <c r="C8" s="12">
+        <v>104</v>
+      </c>
+      <c r="D8" s="12">
+        <v>200</v>
       </c>
       <c r="E8" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F8" s="7">
-        <f>PRODUCT(D8,E8)</f>
-        <v>933.3</v>
+        <f t="shared" si="0"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>44174</v>
+        <v>44105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="8">
-        <v>1376</v>
+        <v>1151</v>
       </c>
       <c r="D9" s="8">
-        <f>SUM(C9,-C7)</f>
-        <v>225</v>
+        <v>822</v>
       </c>
       <c r="E9" s="5">
         <v>4.71</v>
       </c>
       <c r="F9" s="7">
-        <f>PRODUCT(D9,E9)</f>
-        <v>1059.75</v>
+        <f t="shared" si="0"/>
+        <v>3871.62</v>
       </c>
       <c r="G9" s="10">
         <f>SUM(F9,F10)</f>
-        <v>1365.75</v>
+        <v>4611.12</v>
       </c>
       <c r="H9" s="10">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -702,43 +708,144 @@
         <v>9</v>
       </c>
       <c r="C10" s="8">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="D10" s="8">
-        <f>SUM(C10,-C8)</f>
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="E10" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F10" s="7">
-        <f>PRODUCT(D10,E10)</f>
-        <v>306</v>
+        <f t="shared" si="0"/>
+        <v>739.5</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44174</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1376</v>
+      </c>
+      <c r="D11" s="8">
+        <f>SUM(C11,-C9)</f>
+        <v>225</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>1059.75</v>
+      </c>
       <c r="G11" s="10">
-        <f>SUM(G3:G10)</f>
-        <v>7753.98</v>
+        <f>SUM(F11,F12)</f>
+        <v>1365.75</v>
       </c>
       <c r="H11" s="10">
-        <f>SUM(H3:H10)</f>
-        <v>7275.02</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="11"/>
-      <c r="H12" s="10">
-        <f>SUM(H11,-G11)</f>
-        <v>-478.95999999999913</v>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>514</v>
+      </c>
+      <c r="D12" s="8">
+        <f>SUM(C12,-C10)</f>
+        <v>120</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44216</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="8">
+        <f>SUM(C13,-C11)</f>
+        <v>124</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13:F14" si="1">PRODUCT(D13,E13)</f>
+        <v>584.04</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(F13,F14)</f>
+        <v>660.54</v>
+      </c>
+      <c r="H13" s="10">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8">
+        <v>544</v>
+      </c>
+      <c r="D14" s="8">
+        <f>SUM(C14,-C12)</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>76.5</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="10">
+        <f>SUM(G3:G14)</f>
+        <v>10547.34</v>
+      </c>
+      <c r="H15" s="10">
+        <f>SUM(H3:H14)</f>
+        <v>10985.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="11"/>
+      <c r="H16" s="10">
+        <f>SUM(H15,-G15)</f>
+        <v>437.68000000000029</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +85,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -148,9 +160,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -159,6 +168,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,8 +541,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -548,11 +564,11 @@
         <f>PRODUCT(D3,E3)</f>
         <v>700.44</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>SUM(F3,F4)</f>
         <v>768.48</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>768.48</v>
       </c>
     </row>
@@ -574,34 +590,34 @@
         <f>PRODUCT(D4,E4)</f>
         <v>68.040000000000006</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>43801</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>291</v>
       </c>
-      <c r="D5" s="12">
-        <v>135</v>
+      <c r="D5" s="13">
+        <v>124</v>
       </c>
       <c r="E5" s="5">
         <v>4.49</v>
       </c>
       <c r="F5" s="7">
         <f>PRODUCT(D5,E5)</f>
-        <v>606.15</v>
-      </c>
-      <c r="G5" s="10">
+        <v>556.76</v>
+      </c>
+      <c r="G5" s="14">
         <f>SUM(F5,F6)</f>
-        <v>606.15</v>
-      </c>
-      <c r="H5" s="10">
+        <v>556.76</v>
+      </c>
+      <c r="H5" s="14">
         <v>2006.54</v>
       </c>
     </row>
@@ -610,46 +626,45 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>44098</v>
+      <c r="A7" s="8">
+        <v>44099</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12">
-        <v>329</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="13">
+        <v>721</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" ref="D7:D16" si="0">SUM(C7,-C5)</f>
         <v>430</v>
       </c>
       <c r="E7" s="5">
         <v>4.71</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F12" si="0">PRODUCT(D7,E7)</f>
+        <f t="shared" ref="F7:F12" si="1">PRODUCT(D7,E7)</f>
         <v>2025.3</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="14">
         <f>SUM(F7,F8)</f>
-        <v>2535.2999999999997</v>
-      </c>
-      <c r="H7" s="10">
+        <v>2520</v>
+      </c>
+      <c r="H7" s="14">
         <v>3000</v>
       </c>
     </row>
@@ -658,47 +673,49 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12">
-        <v>104</v>
-      </c>
-      <c r="D8" s="12">
-        <v>200</v>
+      <c r="C8" s="13">
+        <v>194</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>194</v>
       </c>
       <c r="E8" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>494.7</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>44105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1151</v>
+      </c>
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>44105</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1151</v>
-      </c>
-      <c r="D9" s="8">
-        <v>822</v>
+        <v>430</v>
       </c>
       <c r="E9" s="5">
         <v>4.71</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>3871.62</v>
-      </c>
-      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>2025.3</v>
+      </c>
+      <c r="G9" s="14">
         <f>SUM(F9,F10)</f>
-        <v>4611.12</v>
-      </c>
-      <c r="H9" s="10">
+        <v>2535.2999999999997</v>
+      </c>
+      <c r="H9" s="14">
         <v>2000</v>
       </c>
     </row>
@@ -707,48 +724,49 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="12">
         <v>394</v>
       </c>
-      <c r="D10" s="8">
-        <v>290</v>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>44174</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1376</v>
+      </c>
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>739.5</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>44174</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1376</v>
-      </c>
-      <c r="D11" s="8">
-        <f>SUM(C11,-C9)</f>
         <v>225</v>
       </c>
       <c r="E11" s="5">
         <v>4.71</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1059.75</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="14">
         <f>SUM(F11,F12)</f>
         <v>1365.75</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="14">
         <v>2500</v>
       </c>
     </row>
@@ -757,49 +775,49 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="12">
         <v>514</v>
       </c>
-      <c r="D12" s="8">
-        <f>SUM(C12,-C10)</f>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E12" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>44216</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>306</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>44216</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1500</v>
-      </c>
-      <c r="D13" s="8">
-        <f>SUM(C13,-C11)</f>
         <v>124</v>
       </c>
       <c r="E13" s="5">
         <v>4.71</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" ref="F13:F14" si="1">PRODUCT(D13,E13)</f>
+        <f t="shared" ref="F13:F14" si="2">PRODUCT(D13,E13)</f>
         <v>584.04</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="14">
         <f>SUM(F13,F14)</f>
         <v>660.54</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="14">
         <v>710</v>
       </c>
     </row>
@@ -808,38 +826,140 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="12">
         <v>544</v>
       </c>
-      <c r="D14" s="8">
-        <f>SUM(C14,-C12)</f>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E14" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76.5</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="10">
+      <c r="A15" s="8">
+        <v>44245</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1600</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15:F16" si="3">PRODUCT(D15,E15)</f>
+        <v>471</v>
+      </c>
+      <c r="G15" s="14">
+        <f>SUM(F15,F16)</f>
+        <v>547.5</v>
+      </c>
+      <c r="H15" s="14">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>574</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="3"/>
+        <v>76.5</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>44281</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1700</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" ref="D17:D18" si="4">SUM(C17,-C15)</f>
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17:F18" si="5">PRODUCT(D17,E17)</f>
+        <v>471</v>
+      </c>
+      <c r="G17" s="14">
+        <f>SUM(F17,F18)</f>
+        <v>547.5</v>
+      </c>
+      <c r="H17" s="14">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
+        <v>604</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="5"/>
+        <v>76.5</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="9">
         <f>SUM(G3:G14)</f>
-        <v>10547.34</v>
-      </c>
-      <c r="H15" s="10">
+        <v>8406.8299999999981</v>
+      </c>
+      <c r="H19" s="9">
         <f>SUM(H3:H14)</f>
         <v>10985.02</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="11"/>
-      <c r="H16" s="10">
-        <f>SUM(H15,-G15)</f>
-        <v>437.68000000000029</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="10"/>
+      <c r="H20" s="9">
+        <f>SUM(H19,-G19)</f>
+        <v>2578.1900000000023</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +175,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,50 +614,50 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="15">
         <v>43801</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
         <v>291</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="17">
         <v>124</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="18">
         <v>4.49</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="19">
         <f>PRODUCT(D5,E5)</f>
         <v>556.76</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="20">
         <f>SUM(F5,F6)</f>
         <v>556.76</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="20">
         <v>2006.54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="5">
+      <c r="D6" s="17"/>
+      <c r="E6" s="18">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -946,20 +966,71 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="9">
-        <f>SUM(G3:G14)</f>
-        <v>8406.8299999999981</v>
-      </c>
-      <c r="H19" s="9">
-        <f>SUM(H3:H14)</f>
-        <v>10985.02</v>
+      <c r="A19" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1750</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:D20" si="6">SUM(C19,-C17)</f>
+        <v>50</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19:F20" si="7">PRODUCT(D19,E19)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G19" s="14">
+        <f>SUM(F19,F20)</f>
+        <v>286.5</v>
+      </c>
+      <c r="H19" s="14">
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="10"/>
-      <c r="H20" s="9">
-        <f>SUM(H19,-G19)</f>
-        <v>2578.1900000000023</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12">
+        <v>624</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="9">
+        <f>SUM(G3:G20)</f>
+        <v>9788.3299999999981</v>
+      </c>
+      <c r="H21" s="9">
+        <f>SUM(H3:H20)</f>
+        <v>12475.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+      <c r="H22" s="9">
+        <f>SUM(H21,-G21)</f>
+        <v>2686.6900000000023</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1017,19 +1017,70 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="9">
+      <c r="A21" s="8">
+        <v>44342</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1925</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" ref="D21:D22" si="8">SUM(C21,-C19)</f>
+        <v>175</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" ref="F21:F22" si="9">PRODUCT(D21,E21)</f>
+        <v>824.25</v>
+      </c>
+      <c r="G21" s="14">
+        <f>SUM(F21,F22)</f>
+        <v>1148.0999999999999</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12">
+        <v>751</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="9"/>
+        <v>323.84999999999997</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="9">
         <f>SUM(G3:G20)</f>
         <v>9788.3299999999981</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H23" s="9">
         <f>SUM(H3:H20)</f>
         <v>12475.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="10"/>
-      <c r="H22" s="9">
-        <f>SUM(H21,-G21)</f>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="10"/>
+      <c r="H24" s="9">
+        <f>SUM(H23,-G23)</f>
         <v>2686.6900000000023</v>
       </c>
     </row>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1068,20 +1068,71 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="9">
-        <f>SUM(G3:G20)</f>
-        <v>9788.3299999999981</v>
-      </c>
-      <c r="H23" s="9">
-        <f>SUM(H3:H20)</f>
-        <v>12475.02</v>
+      <c r="A23" s="8">
+        <v>44379</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2011</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" ref="D23:D24" si="10">SUM(C23,-C21)</f>
+        <v>86</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" ref="F23:F24" si="11">PRODUCT(D23,E23)</f>
+        <v>426.56</v>
+      </c>
+      <c r="G23" s="14">
+        <f>SUM(F23,F24)</f>
+        <v>506.96000000000004</v>
+      </c>
+      <c r="H23" s="14">
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="10"/>
-      <c r="H24" s="9">
-        <f>SUM(H23,-G23)</f>
-        <v>2686.6900000000023</v>
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <v>781</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="11"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="9">
+        <f>SUM(G3:G24)</f>
+        <v>11443.39</v>
+      </c>
+      <c r="H25" s="9">
+        <f>SUM(H3:H24)</f>
+        <v>14251.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="10"/>
+      <c r="H26" s="9">
+        <f>SUM(H25,-G25)</f>
+        <v>2807.630000000001</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1119,20 +1119,71 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="9">
-        <f>SUM(G3:G24)</f>
-        <v>11443.39</v>
-      </c>
-      <c r="H25" s="9">
-        <f>SUM(H3:H24)</f>
-        <v>14251.02</v>
+      <c r="A25" s="8">
+        <v>44418</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>2090</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" ref="D25:D26" si="12">SUM(C25,-C23)</f>
+        <v>79</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" ref="F25:F26" si="13">PRODUCT(D25,E25)</f>
+        <v>391.84</v>
+      </c>
+      <c r="G25" s="14">
+        <f>SUM(F25,F26)</f>
+        <v>458.84</v>
+      </c>
+      <c r="H25" s="14">
+        <v>435.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="10"/>
-      <c r="H26" s="9">
-        <f>SUM(H25,-G25)</f>
-        <v>2807.630000000001</v>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
+        <v>806</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="13"/>
+        <v>67</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="9">
+        <f>SUM(G7:G26)</f>
+        <v>10576.990000000002</v>
+      </c>
+      <c r="H27" s="9">
+        <f>SUM(H7:H26)</f>
+        <v>11911.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="10"/>
+      <c r="H28" s="9">
+        <f>SUM(H27,-G27)</f>
+        <v>1334.5099999999984</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/108ee.xlsx
+++ b/sputnik/personal/ee/108ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1170,19 +1170,70 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="9">
+      <c r="A27" s="8">
+        <v>44484</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2204</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" ref="D27:D28" si="14">SUM(C27,-C25)</f>
+        <v>114</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" ref="F27:F28" si="15">PRODUCT(D27,E27)</f>
+        <v>565.43999999999994</v>
+      </c>
+      <c r="G27" s="14">
+        <f>SUM(F27,F28)</f>
+        <v>680.68</v>
+      </c>
+      <c r="H27" s="14">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <v>849</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="15"/>
+        <v>115.24000000000001</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="9">
         <f>SUM(G7:G26)</f>
         <v>10576.990000000002</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H29" s="9">
         <f>SUM(H7:H26)</f>
         <v>11911.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="10"/>
-      <c r="H28" s="9">
-        <f>SUM(H27,-G27)</f>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="10"/>
+      <c r="H30" s="9">
+        <f>SUM(H29,-G29)</f>
         <v>1334.5099999999984</v>
       </c>
     </row>
